--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.38984556435366</v>
+        <v>2.070715666666667</v>
       </c>
       <c r="H2">
-        <v>1.38984556435366</v>
+        <v>6.212147000000001</v>
       </c>
       <c r="I2">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="J2">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N2">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O2">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P2">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q2">
-        <v>8.175080057187955</v>
+        <v>18.21276498197589</v>
       </c>
       <c r="R2">
-        <v>8.175080057187955</v>
+        <v>163.914884837783</v>
       </c>
       <c r="S2">
-        <v>0.001118936652631891</v>
+        <v>0.002238628184162924</v>
       </c>
       <c r="T2">
-        <v>0.001118936652631891</v>
+        <v>0.002238628184162924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.38984556435366</v>
+        <v>2.070715666666667</v>
       </c>
       <c r="H3">
-        <v>1.38984556435366</v>
+        <v>6.212147000000001</v>
       </c>
       <c r="I3">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="J3">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N3">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O3">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P3">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q3">
-        <v>13.39268701933219</v>
+        <v>20.01068939838579</v>
       </c>
       <c r="R3">
-        <v>13.39268701933219</v>
+        <v>180.096204585472</v>
       </c>
       <c r="S3">
-        <v>0.001833079098715619</v>
+        <v>0.002459620673527008</v>
       </c>
       <c r="T3">
-        <v>0.001833079098715619</v>
+        <v>0.002459620673527008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.38984556435366</v>
+        <v>2.070715666666667</v>
       </c>
       <c r="H4">
-        <v>1.38984556435366</v>
+        <v>6.212147000000001</v>
       </c>
       <c r="I4">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="J4">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N4">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O4">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P4">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q4">
-        <v>117.3736071995507</v>
+        <v>194.7225466323428</v>
       </c>
       <c r="R4">
-        <v>117.3736071995507</v>
+        <v>1752.502919691085</v>
       </c>
       <c r="S4">
-        <v>0.01606511865675496</v>
+        <v>0.02393438785459198</v>
       </c>
       <c r="T4">
-        <v>0.01606511865675496</v>
+        <v>0.02393438785459198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.38984556435366</v>
+        <v>2.070715666666667</v>
       </c>
       <c r="H5">
-        <v>1.38984556435366</v>
+        <v>6.212147000000001</v>
       </c>
       <c r="I5">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="J5">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N5">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O5">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P5">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q5">
-        <v>136.2537039674498</v>
+        <v>204.1129018930683</v>
       </c>
       <c r="R5">
-        <v>136.2537039674498</v>
+        <v>1837.016117037614</v>
       </c>
       <c r="S5">
-        <v>0.01864926855266508</v>
+        <v>0.02508860655596798</v>
       </c>
       <c r="T5">
-        <v>0.01864926855266508</v>
+        <v>0.02508860655596799</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.38984556435366</v>
+        <v>2.070715666666667</v>
       </c>
       <c r="H6">
-        <v>1.38984556435366</v>
+        <v>6.212147000000001</v>
       </c>
       <c r="I6">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="J6">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N6">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O6">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P6">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q6">
-        <v>268.5850105378856</v>
+        <v>406.6902921930621</v>
       </c>
       <c r="R6">
-        <v>268.5850105378856</v>
+        <v>3660.212629737558</v>
       </c>
       <c r="S6">
-        <v>0.03676167212260161</v>
+        <v>0.0499884751837429</v>
       </c>
       <c r="T6">
-        <v>0.03676167212260161</v>
+        <v>0.0499884751837429</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.38984556435366</v>
+        <v>2.070715666666667</v>
       </c>
       <c r="H7">
-        <v>1.38984556435366</v>
+        <v>6.212147000000001</v>
       </c>
       <c r="I7">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="J7">
-        <v>0.0746709201004338</v>
+        <v>0.1040804066116837</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N7">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O7">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P7">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q7">
-        <v>1.774253664247148</v>
+        <v>3.015800650511667</v>
       </c>
       <c r="R7">
-        <v>1.774253664247148</v>
+        <v>27.142205854605</v>
       </c>
       <c r="S7">
-        <v>0.0002428450170646355</v>
+        <v>0.0003706881596909432</v>
       </c>
       <c r="T7">
-        <v>0.0002428450170646355</v>
+        <v>0.0003706881596909432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.58184501189812</v>
+        <v>1.585229333333333</v>
       </c>
       <c r="H8">
-        <v>1.58184501189812</v>
+        <v>4.755688</v>
       </c>
       <c r="I8">
-        <v>0.08498629309915041</v>
+        <v>0.07967840116441305</v>
       </c>
       <c r="J8">
-        <v>0.08498629309915041</v>
+        <v>0.07967840116441303</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N8">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O8">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P8">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q8">
-        <v>9.304421974641754</v>
+        <v>13.94272026589245</v>
       </c>
       <c r="R8">
-        <v>9.304421974641754</v>
+        <v>125.484482393032</v>
       </c>
       <c r="S8">
-        <v>0.001273511538254149</v>
+        <v>0.001713774189806746</v>
       </c>
       <c r="T8">
-        <v>0.001273511538254149</v>
+        <v>0.001713774189806746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.58184501189812</v>
+        <v>1.585229333333333</v>
       </c>
       <c r="H9">
-        <v>1.58184501189812</v>
+        <v>4.755688</v>
       </c>
       <c r="I9">
-        <v>0.08498629309915041</v>
+        <v>0.07967840116441305</v>
       </c>
       <c r="J9">
-        <v>0.08498629309915041</v>
+        <v>0.07967840116441303</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N9">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O9">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P9">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q9">
-        <v>15.2428123676427</v>
+        <v>15.31911518572089</v>
       </c>
       <c r="R9">
-        <v>15.2428123676427</v>
+        <v>137.872036671488</v>
       </c>
       <c r="S9">
-        <v>0.002086308797960922</v>
+        <v>0.001882954238147344</v>
       </c>
       <c r="T9">
-        <v>0.002086308797960922</v>
+        <v>0.001882954238147344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.58184501189812</v>
+        <v>1.585229333333333</v>
       </c>
       <c r="H10">
-        <v>1.58184501189812</v>
+        <v>4.755688</v>
       </c>
       <c r="I10">
-        <v>0.08498629309915041</v>
+        <v>0.07967840116441305</v>
       </c>
       <c r="J10">
-        <v>0.08498629309915041</v>
+        <v>0.07967840116441303</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N10">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O10">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P10">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q10">
-        <v>133.5881193126963</v>
+        <v>149.0691830616489</v>
       </c>
       <c r="R10">
-        <v>133.5881193126963</v>
+        <v>1341.62264755484</v>
       </c>
       <c r="S10">
-        <v>0.01828442559699589</v>
+        <v>0.01832288918910464</v>
       </c>
       <c r="T10">
-        <v>0.01828442559699589</v>
+        <v>0.01832288918910464</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.58184501189812</v>
+        <v>1.585229333333333</v>
       </c>
       <c r="H11">
-        <v>1.58184501189812</v>
+        <v>4.755688</v>
       </c>
       <c r="I11">
-        <v>0.08498629309915041</v>
+        <v>0.07967840116441305</v>
       </c>
       <c r="J11">
-        <v>0.08498629309915041</v>
+        <v>0.07967840116441303</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N11">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O11">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P11">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q11">
-        <v>155.0763966166166</v>
+        <v>156.2579375822951</v>
       </c>
       <c r="R11">
-        <v>155.0763966166166</v>
+        <v>1406.321438240656</v>
       </c>
       <c r="S11">
-        <v>0.02122556145243422</v>
+        <v>0.01920649738889602</v>
       </c>
       <c r="T11">
-        <v>0.02122556145243422</v>
+        <v>0.01920649738889603</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.58184501189812</v>
+        <v>1.585229333333333</v>
       </c>
       <c r="H12">
-        <v>1.58184501189812</v>
+        <v>4.755688</v>
       </c>
       <c r="I12">
-        <v>0.08498629309915041</v>
+        <v>0.07967840116441305</v>
       </c>
       <c r="J12">
-        <v>0.08498629309915041</v>
+        <v>0.07967840116441303</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N12">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O12">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P12">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q12">
-        <v>305.6885384150844</v>
+        <v>311.340369488848</v>
       </c>
       <c r="R12">
-        <v>305.6885384150844</v>
+        <v>2802.063325399632</v>
       </c>
       <c r="S12">
-        <v>0.04184009300573942</v>
+        <v>0.03826850709901487</v>
       </c>
       <c r="T12">
-        <v>0.04184009300573942</v>
+        <v>0.03826850709901486</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.58184501189812</v>
+        <v>1.585229333333333</v>
       </c>
       <c r="H13">
-        <v>1.58184501189812</v>
+        <v>4.755688</v>
       </c>
       <c r="I13">
-        <v>0.08498629309915041</v>
+        <v>0.07967840116441305</v>
       </c>
       <c r="J13">
-        <v>0.08498629309915041</v>
+        <v>0.07967840116441303</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N13">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O13">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P13">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q13">
-        <v>2.019356956351121</v>
+        <v>2.308735927213333</v>
       </c>
       <c r="R13">
-        <v>2.019356956351121</v>
+        <v>20.77862334492</v>
       </c>
       <c r="S13">
-        <v>0.0002763927077658094</v>
+        <v>0.0002837790594434263</v>
       </c>
       <c r="T13">
-        <v>0.0002763927077658094</v>
+        <v>0.0002837790594434263</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.07117144294101</v>
+        <v>2.25799</v>
       </c>
       <c r="H14">
-        <v>2.07117144294101</v>
+        <v>6.77397</v>
       </c>
       <c r="I14">
-        <v>0.1112758721520764</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="J14">
-        <v>0.1112758721520764</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N14">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O14">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P14">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q14">
-        <v>12.18264301622489</v>
+        <v>19.85991696670333</v>
       </c>
       <c r="R14">
-        <v>12.18264301622489</v>
+        <v>178.73925270033</v>
       </c>
       <c r="S14">
-        <v>0.001667458385902697</v>
+        <v>0.002441088428956063</v>
       </c>
       <c r="T14">
-        <v>0.001667458385902697</v>
+        <v>0.002441088428956064</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.07117144294101</v>
+        <v>2.25799</v>
       </c>
       <c r="H15">
-        <v>2.07117144294101</v>
+        <v>6.77397</v>
       </c>
       <c r="I15">
-        <v>0.1112758721520764</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="J15">
-        <v>0.1112758721520764</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N15">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O15">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P15">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q15">
-        <v>19.95800944372352</v>
+        <v>21.82044463274667</v>
       </c>
       <c r="R15">
-        <v>19.95800944372352</v>
+        <v>196.38400169472</v>
       </c>
       <c r="S15">
-        <v>0.002731685576647096</v>
+        <v>0.002682067351891664</v>
       </c>
       <c r="T15">
-        <v>0.002731685576647096</v>
+        <v>0.002682067351891664</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.07117144294101</v>
+        <v>2.25799</v>
       </c>
       <c r="H16">
-        <v>2.07117144294101</v>
+        <v>6.77397</v>
       </c>
       <c r="I16">
-        <v>0.1112758721520764</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="J16">
-        <v>0.1112758721520764</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N16">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O16">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P16">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q16">
-        <v>174.9121410476547</v>
+        <v>212.3331416998167</v>
       </c>
       <c r="R16">
-        <v>174.9121410476547</v>
+        <v>1910.99827529835</v>
       </c>
       <c r="S16">
-        <v>0.02394051241571104</v>
+        <v>0.02609900011950303</v>
       </c>
       <c r="T16">
-        <v>0.02394051241571104</v>
+        <v>0.02609900011950304</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.07117144294101</v>
+        <v>2.25799</v>
       </c>
       <c r="H17">
-        <v>2.07117144294101</v>
+        <v>6.77397</v>
       </c>
       <c r="I17">
-        <v>0.1112758721520764</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="J17">
-        <v>0.1112758721520764</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N17">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O17">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P17">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q17">
-        <v>203.0475816092257</v>
+        <v>222.5727552867934</v>
       </c>
       <c r="R17">
-        <v>203.0475816092257</v>
+        <v>2003.15479758114</v>
       </c>
       <c r="S17">
-        <v>0.02779145643852918</v>
+        <v>0.02735760569605491</v>
       </c>
       <c r="T17">
-        <v>0.02779145643852918</v>
+        <v>0.02735760569605492</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.07117144294101</v>
+        <v>2.25799</v>
       </c>
       <c r="H18">
-        <v>2.07117144294101</v>
+        <v>6.77397</v>
       </c>
       <c r="I18">
-        <v>0.1112758721520764</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="J18">
-        <v>0.1112758721520764</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N18">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O18">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P18">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q18">
-        <v>400.2499400620648</v>
+        <v>443.47112819562</v>
       </c>
       <c r="R18">
-        <v>400.2499400620648</v>
+        <v>3991.24015376058</v>
       </c>
       <c r="S18">
-        <v>0.05478286757025516</v>
+        <v>0.05450940411429717</v>
       </c>
       <c r="T18">
-        <v>0.05478286757025516</v>
+        <v>0.05450940411429718</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.07117144294101</v>
+        <v>2.25799</v>
       </c>
       <c r="H19">
-        <v>2.07117144294101</v>
+        <v>6.77397</v>
       </c>
       <c r="I19">
-        <v>0.1112758721520764</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="J19">
-        <v>0.1112758721520764</v>
+        <v>0.1134933786942497</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N19">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O19">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P19">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q19">
-        <v>2.644022916050445</v>
+        <v>3.28854792595</v>
       </c>
       <c r="R19">
-        <v>2.644022916050445</v>
+        <v>29.59693133355</v>
       </c>
       <c r="S19">
-        <v>0.0003618917650312469</v>
+        <v>0.0004042129835468572</v>
       </c>
       <c r="T19">
-        <v>0.0003618917650312469</v>
+        <v>0.0004042129835468572</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.58613100524074</v>
+        <v>3.591444666666667</v>
       </c>
       <c r="H20">
-        <v>3.58613100524074</v>
+        <v>10.774334</v>
       </c>
       <c r="I20">
-        <v>0.1926686738656097</v>
+        <v>0.180516826741236</v>
       </c>
       <c r="J20">
-        <v>0.1926686738656097</v>
+        <v>0.180516826741236</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N20">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O20">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P20">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q20">
-        <v>21.09364436979056</v>
+        <v>31.58817925256956</v>
       </c>
       <c r="R20">
-        <v>21.09364436979056</v>
+        <v>284.293613273126</v>
       </c>
       <c r="S20">
-        <v>0.002887121796708091</v>
+        <v>0.003882671765169893</v>
       </c>
       <c r="T20">
-        <v>0.002887121796708091</v>
+        <v>0.003882671765169893</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.58613100524074</v>
+        <v>3.591444666666667</v>
       </c>
       <c r="H21">
-        <v>3.58613100524074</v>
+        <v>10.774334</v>
       </c>
       <c r="I21">
-        <v>0.1926686738656097</v>
+        <v>0.180516826741236</v>
       </c>
       <c r="J21">
-        <v>0.1926686738656097</v>
+        <v>0.180516826741236</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N21">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O21">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P21">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q21">
-        <v>34.55630711448683</v>
+        <v>34.70649537888713</v>
       </c>
       <c r="R21">
-        <v>34.55630711448683</v>
+        <v>312.3584584099841</v>
       </c>
       <c r="S21">
-        <v>0.004729778588040376</v>
+        <v>0.004265960649335075</v>
       </c>
       <c r="T21">
-        <v>0.004729778588040376</v>
+        <v>0.004265960649335075</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.58613100524074</v>
+        <v>3.591444666666667</v>
       </c>
       <c r="H22">
-        <v>3.58613100524074</v>
+        <v>10.774334</v>
       </c>
       <c r="I22">
-        <v>0.1926686738656097</v>
+        <v>0.180516826741236</v>
       </c>
       <c r="J22">
-        <v>0.1926686738656097</v>
+        <v>0.180516826741236</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N22">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O22">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P22">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q22">
-        <v>302.8517288329093</v>
+        <v>337.7263536660412</v>
       </c>
       <c r="R22">
-        <v>302.8517288329093</v>
+        <v>3039.537182994371</v>
       </c>
       <c r="S22">
-        <v>0.04145181421264771</v>
+        <v>0.04151174929230062</v>
       </c>
       <c r="T22">
-        <v>0.04145181421264771</v>
+        <v>0.04151174929230062</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.58613100524074</v>
+        <v>3.591444666666667</v>
       </c>
       <c r="H23">
-        <v>3.58613100524074</v>
+        <v>10.774334</v>
       </c>
       <c r="I23">
-        <v>0.1926686738656097</v>
+        <v>0.180516826741236</v>
       </c>
       <c r="J23">
-        <v>0.1926686738656097</v>
+        <v>0.180516826741236</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N23">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O23">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P23">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q23">
-        <v>351.5668538351572</v>
+        <v>354.012965035301</v>
       </c>
       <c r="R23">
-        <v>351.5668538351572</v>
+        <v>3186.116685317709</v>
       </c>
       <c r="S23">
-        <v>0.04811953349138826</v>
+        <v>0.04351362365194977</v>
       </c>
       <c r="T23">
-        <v>0.04811953349138826</v>
+        <v>0.04351362365194977</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.58613100524074</v>
+        <v>3.591444666666667</v>
       </c>
       <c r="H24">
-        <v>3.58613100524074</v>
+        <v>10.774334</v>
       </c>
       <c r="I24">
-        <v>0.1926686738656097</v>
+        <v>0.180516826741236</v>
       </c>
       <c r="J24">
-        <v>0.1926686738656097</v>
+        <v>0.180516826741236</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N24">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O24">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P24">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q24">
-        <v>693.0129926203308</v>
+        <v>705.3627421639641</v>
       </c>
       <c r="R24">
-        <v>693.0129926203308</v>
+        <v>6348.264679475677</v>
       </c>
       <c r="S24">
-        <v>0.09485382806877801</v>
+        <v>0.08669990065920162</v>
       </c>
       <c r="T24">
-        <v>0.09485382806877801</v>
+        <v>0.08669990065920162</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.58613100524074</v>
+        <v>3.591444666666667</v>
       </c>
       <c r="H25">
-        <v>3.58613100524074</v>
+        <v>10.774334</v>
       </c>
       <c r="I25">
-        <v>0.1926686738656097</v>
+        <v>0.180516826741236</v>
       </c>
       <c r="J25">
-        <v>0.1926686738656097</v>
+        <v>0.180516826741236</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N25">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O25">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P25">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q25">
-        <v>4.577995023121604</v>
+        <v>5.230597969756667</v>
       </c>
       <c r="R25">
-        <v>4.577995023121604</v>
+        <v>47.07538172781</v>
       </c>
       <c r="S25">
-        <v>0.0006265977080472974</v>
+        <v>0.0006429207232790143</v>
       </c>
       <c r="T25">
-        <v>0.0006265977080472974</v>
+        <v>0.0006429207232790143</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.24462222975626</v>
+        <v>7.313193000000001</v>
       </c>
       <c r="H26">
-        <v>7.24462222975626</v>
+        <v>21.939579</v>
       </c>
       <c r="I26">
-        <v>0.3892249768970036</v>
+        <v>0.3675831082569614</v>
       </c>
       <c r="J26">
-        <v>0.3892249768970036</v>
+        <v>0.3675831082569613</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N26">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O26">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P26">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q26">
-        <v>42.61291198917008</v>
+        <v>64.32243089715902</v>
       </c>
       <c r="R26">
-        <v>42.61291198917008</v>
+        <v>578.9018780744311</v>
       </c>
       <c r="S26">
-        <v>0.005832499347591781</v>
+        <v>0.007906213407066676</v>
       </c>
       <c r="T26">
-        <v>0.005832499347591781</v>
+        <v>0.007906213407066676</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.24462222975626</v>
+        <v>7.313193000000001</v>
       </c>
       <c r="H27">
-        <v>7.24462222975626</v>
+        <v>21.939579</v>
       </c>
       <c r="I27">
-        <v>0.3892249768970036</v>
+        <v>0.3675831082569614</v>
       </c>
       <c r="J27">
-        <v>0.3892249768970036</v>
+        <v>0.3675831082569613</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N27">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O27">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P27">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q27">
-        <v>69.80988433887113</v>
+        <v>70.67220091545602</v>
       </c>
       <c r="R27">
-        <v>69.80988433887113</v>
+        <v>636.0498082391041</v>
       </c>
       <c r="S27">
-        <v>0.009554993682792752</v>
+        <v>0.008686697542231211</v>
       </c>
       <c r="T27">
-        <v>0.009554993682792752</v>
+        <v>0.008686697542231211</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.24462222975626</v>
+        <v>7.313193000000001</v>
       </c>
       <c r="H28">
-        <v>7.24462222975626</v>
+        <v>21.939579</v>
       </c>
       <c r="I28">
-        <v>0.3892249768970036</v>
+        <v>0.3675831082569614</v>
       </c>
       <c r="J28">
-        <v>0.3892249768970036</v>
+        <v>0.3675831082569613</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N28">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O28">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P28">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q28">
-        <v>611.8143380196232</v>
+        <v>687.7059887542051</v>
       </c>
       <c r="R28">
-        <v>611.8143380196232</v>
+        <v>6189.353898787846</v>
       </c>
       <c r="S28">
-        <v>0.08374003466962426</v>
+        <v>0.08452961482599515</v>
       </c>
       <c r="T28">
-        <v>0.08374003466962426</v>
+        <v>0.08452961482599515</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.24462222975626</v>
+        <v>7.313193000000001</v>
       </c>
       <c r="H29">
-        <v>7.24462222975626</v>
+        <v>21.939579</v>
       </c>
       <c r="I29">
-        <v>0.3892249768970036</v>
+        <v>0.3675831082569614</v>
       </c>
       <c r="J29">
-        <v>0.3892249768970036</v>
+        <v>0.3675831082569613</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N29">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O29">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P29">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q29">
-        <v>710.2275518706741</v>
+        <v>720.8701172078222</v>
       </c>
       <c r="R29">
-        <v>710.2275518706741</v>
+        <v>6487.831054870399</v>
       </c>
       <c r="S29">
-        <v>0.09721001310542193</v>
+        <v>0.08860599492165551</v>
       </c>
       <c r="T29">
-        <v>0.09721001310542193</v>
+        <v>0.08860599492165552</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.24462222975626</v>
+        <v>7.313193000000001</v>
       </c>
       <c r="H30">
-        <v>7.24462222975626</v>
+        <v>21.939579</v>
       </c>
       <c r="I30">
-        <v>0.3892249768970036</v>
+        <v>0.3675831082569614</v>
       </c>
       <c r="J30">
-        <v>0.3892249768970036</v>
+        <v>0.3675831082569613</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N30">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O30">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P30">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q30">
-        <v>1400.00945991936</v>
+        <v>1436.317233655734</v>
       </c>
       <c r="R30">
-        <v>1400.00945991936</v>
+        <v>12926.85510290161</v>
       </c>
       <c r="S30">
-        <v>0.1916215973148523</v>
+        <v>0.1765454198658317</v>
       </c>
       <c r="T30">
-        <v>0.1916215973148523</v>
+        <v>0.1765454198658317</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.24462222975626</v>
+        <v>7.313193000000001</v>
       </c>
       <c r="H31">
-        <v>7.24462222975626</v>
+        <v>21.939579</v>
       </c>
       <c r="I31">
-        <v>0.3892249768970036</v>
+        <v>0.3675831082569614</v>
       </c>
       <c r="J31">
-        <v>0.3892249768970036</v>
+        <v>0.3675831082569613</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N31">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O31">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P31">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q31">
-        <v>9.248363895170595</v>
+        <v>10.650970851165</v>
       </c>
       <c r="R31">
-        <v>9.248363895170595</v>
+        <v>95.858737660485</v>
       </c>
       <c r="S31">
-        <v>0.001265838776720606</v>
+        <v>0.001309167694181104</v>
       </c>
       <c r="T31">
-        <v>0.001265838776720606</v>
+        <v>0.001309167694181104</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.73932754180484</v>
+        <v>3.076773</v>
       </c>
       <c r="H32">
-        <v>2.73932754180484</v>
+        <v>9.230319</v>
       </c>
       <c r="I32">
-        <v>0.147173263885726</v>
+        <v>0.1546478785314562</v>
       </c>
       <c r="J32">
-        <v>0.147173263885726</v>
+        <v>0.1546478785314562</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N32">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O32">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P32">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q32">
-        <v>16.11274125088046</v>
+        <v>27.061437962699</v>
       </c>
       <c r="R32">
-        <v>16.11274125088046</v>
+        <v>243.552941664291</v>
       </c>
       <c r="S32">
-        <v>0.002205377394944507</v>
+        <v>0.003326265824394454</v>
       </c>
       <c r="T32">
-        <v>0.002205377394944507</v>
+        <v>0.003326265824394455</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.73932754180484</v>
+        <v>3.076773</v>
       </c>
       <c r="H33">
-        <v>2.73932754180484</v>
+        <v>9.230319</v>
       </c>
       <c r="I33">
-        <v>0.147173263885726</v>
+        <v>0.1546478785314562</v>
       </c>
       <c r="J33">
-        <v>0.147173263885726</v>
+        <v>0.1546478785314562</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N33">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O33">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P33">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q33">
-        <v>26.39642658994987</v>
+        <v>29.732884066816</v>
       </c>
       <c r="R33">
-        <v>26.39642658994987</v>
+        <v>267.595956601344</v>
       </c>
       <c r="S33">
-        <v>0.003612922320440448</v>
+        <v>0.003654627528236072</v>
       </c>
       <c r="T33">
-        <v>0.003612922320440448</v>
+        <v>0.003654627528236073</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.73932754180484</v>
+        <v>3.076773</v>
       </c>
       <c r="H34">
-        <v>2.73932754180484</v>
+        <v>9.230319</v>
       </c>
       <c r="I34">
-        <v>0.147173263885726</v>
+        <v>0.1546478785314562</v>
       </c>
       <c r="J34">
-        <v>0.147173263885726</v>
+        <v>0.1546478785314562</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N34">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O34">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P34">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q34">
-        <v>231.3384761077647</v>
+        <v>289.328507826505</v>
       </c>
       <c r="R34">
-        <v>231.3384761077647</v>
+        <v>2603.956570438545</v>
       </c>
       <c r="S34">
-        <v>0.03166367769736857</v>
+        <v>0.03556291165801607</v>
       </c>
       <c r="T34">
-        <v>0.03166367769736857</v>
+        <v>0.03556291165801607</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.73932754180484</v>
+        <v>3.076773</v>
       </c>
       <c r="H35">
-        <v>2.73932754180484</v>
+        <v>9.230319</v>
       </c>
       <c r="I35">
-        <v>0.147173263885726</v>
+        <v>0.1546478785314562</v>
       </c>
       <c r="J35">
-        <v>0.147173263885726</v>
+        <v>0.1546478785314562</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N35">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O35">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P35">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q35">
-        <v>268.550358056892</v>
+        <v>303.281167765142</v>
       </c>
       <c r="R35">
-        <v>268.550358056892</v>
+        <v>2729.530509886278</v>
       </c>
       <c r="S35">
-        <v>0.03675692918053656</v>
+        <v>0.037277907586069</v>
       </c>
       <c r="T35">
-        <v>0.03675692918053656</v>
+        <v>0.03727790758606901</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.73932754180484</v>
+        <v>3.076773</v>
       </c>
       <c r="H36">
-        <v>2.73932754180484</v>
+        <v>9.230319</v>
       </c>
       <c r="I36">
-        <v>0.147173263885726</v>
+        <v>0.1546478785314562</v>
       </c>
       <c r="J36">
-        <v>0.147173263885726</v>
+        <v>0.1546478785314562</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N36">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O36">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P36">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q36">
-        <v>529.3698347157917</v>
+        <v>604.2807955357739</v>
       </c>
       <c r="R36">
-        <v>529.3698347157917</v>
+        <v>5438.527159821965</v>
       </c>
       <c r="S36">
-        <v>0.07245571990947988</v>
+        <v>0.07427537890998562</v>
       </c>
       <c r="T36">
-        <v>0.07245571990947988</v>
+        <v>0.07427537890998563</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.73932754180484</v>
+        <v>3.076773</v>
       </c>
       <c r="H37">
-        <v>2.73932754180484</v>
+        <v>9.230319</v>
       </c>
       <c r="I37">
-        <v>0.147173263885726</v>
+        <v>0.1546478785314562</v>
       </c>
       <c r="J37">
-        <v>0.147173263885726</v>
+        <v>0.1546478785314562</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N37">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O37">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P37">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q37">
-        <v>3.496979846736143</v>
+        <v>4.481027581065</v>
       </c>
       <c r="R37">
-        <v>3.496979846736143</v>
+        <v>40.329248229585</v>
       </c>
       <c r="S37">
-        <v>0.0004786373829559869</v>
+        <v>0.0005507870247549433</v>
       </c>
       <c r="T37">
-        <v>0.0004786373829559869</v>
+        <v>0.0005507870247549433</v>
       </c>
     </row>
   </sheetData>
